--- a/Aws/SAP/模擬結果.xlsx
+++ b/Aws/SAP/模擬結果.xlsx
@@ -15,6 +15,7 @@
     <sheet name="問題①" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="119">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -442,6 +443,67 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用ユーザは、
+企業一覧画面⇒「編集」ボタンもしくは「まとめて編集」ボタン遷移した場合</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -449,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +522,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -494,18 +565,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,11 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:Y511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -803,10 +877,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="2">
+      <c r="A1" s="4">
         <v>44144</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -913,7 +987,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1552,7 +1626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1578,7 +1652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1600,8 +1674,14 @@
       <c r="G34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1623,8 +1703,14 @@
       <c r="G35" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1646,8 +1732,14 @@
       <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1669,8 +1761,14 @@
       <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1686,8 +1784,14 @@
       <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1700,8 +1804,14 @@
       <c r="G39" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1723,8 +1833,14 @@
       <c r="G40" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1743,8 +1859,14 @@
       <c r="G41" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1766,8 +1888,14 @@
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1786,8 +1914,14 @@
       <c r="G43" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1809,8 +1943,14 @@
       <c r="G44" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1829,8 +1969,14 @@
       <c r="G45" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1853,7 +1999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1876,7 +2022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2530,6 +2676,11 @@
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="511" spans="25:25" ht="270" x14ac:dyDescent="0.15">
+      <c r="Y511" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Aws/SAP/模擬結果.xlsx
+++ b/Aws/SAP/模擬結果.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="2265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="2265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="問題①" sheetId="1" r:id="rId1"/>
+    <sheet name="問題②" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="276">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -504,6 +505,637 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C,F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C,D </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -863,9 +1495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y511"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1998,6 +2630,12 @@
       <c r="G46" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
@@ -2021,6 +2659,12 @@
       <c r="G47" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48">
@@ -2044,8 +2688,14 @@
       <c r="G48" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2067,8 +2717,14 @@
       <c r="G49" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2090,8 +2746,14 @@
       <c r="G50" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2113,8 +2775,14 @@
       <c r="G51" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2124,9 +2792,6 @@
       <c r="C52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
@@ -2136,8 +2801,14 @@
       <c r="G52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2159,8 +2830,14 @@
       <c r="G53" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2176,8 +2853,14 @@
       <c r="G54" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2199,8 +2882,14 @@
       <c r="G55" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2219,8 +2908,14 @@
       <c r="G56" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2233,8 +2928,14 @@
       <c r="G57" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2256,8 +2957,14 @@
       <c r="G58" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2273,8 +2980,14 @@
       <c r="G59" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2296,8 +3009,14 @@
       <c r="G60" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -2319,8 +3038,14 @@
       <c r="G61" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2342,8 +3067,14 @@
       <c r="G62" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2362,8 +3093,14 @@
       <c r="G63" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>61</v>
       </c>
@@ -2385,8 +3122,14 @@
       <c r="G64" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2408,8 +3151,14 @@
       <c r="G65" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2431,8 +3180,14 @@
       <c r="G66" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2448,8 +3203,14 @@
       <c r="G67" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2468,8 +3229,14 @@
       <c r="G68" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2491,8 +3258,14 @@
       <c r="G69" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2514,8 +3287,14 @@
       <c r="G70" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2537,8 +3316,14 @@
       <c r="G71" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>69</v>
       </c>
@@ -2554,8 +3339,14 @@
       <c r="G72" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2577,8 +3368,14 @@
       <c r="G73" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2600,8 +3397,14 @@
       <c r="G74" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2620,13 +3423,19 @@
       <c r="G75" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>19</v>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -2637,8 +3446,14 @@
       <c r="G76" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2657,8 +3472,14 @@
       <c r="G77" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2676,6 +3497,12 @@
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="511" spans="25:25" ht="270" x14ac:dyDescent="0.15">
@@ -2690,4 +3517,1601 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z511"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="511" spans="26:26" ht="270" x14ac:dyDescent="0.15">
+      <c r="Z511" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Aws/SAP/模擬結果.xlsx
+++ b/Aws/SAP/模擬結果.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="476">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -1136,6 +1136,809 @@
   </si>
   <si>
     <t>B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3521,11 +4324,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z511"/>
+  <dimension ref="A1:AA511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3536,13 +4339,13 @@
     <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4">
         <v>44161</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3565,10 +4368,13 @@
         <v>168</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3585,10 +4391,15 @@
       <c r="H4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3605,9 +4416,14 @@
       <c r="H5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3627,9 +4443,14 @@
       <c r="H6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3652,10 +4473,15 @@
       <c r="H7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3677,9 +4503,14 @@
       <c r="H8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3699,9 +4530,14 @@
       <c r="H9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3718,9 +4554,14 @@
       <c r="H10" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3737,9 +4578,14 @@
       <c r="H11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3759,9 +4605,14 @@
       <c r="H12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3778,10 +4629,15 @@
       <c r="H13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3798,10 +4654,15 @@
       <c r="H14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3818,9 +4679,14 @@
       <c r="H15" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3837,10 +4703,15 @@
       <c r="H16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I16" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3857,9 +4728,14 @@
       <c r="H17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I17" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3876,9 +4752,14 @@
       <c r="H18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I18" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3898,29 +4779,36 @@
       <c r="H19" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I19" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3940,9 +4828,14 @@
       <c r="H21" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I21" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3962,10 +4855,15 @@
       <c r="H22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I22" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3985,10 +4883,15 @@
       <c r="H23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I23" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4008,9 +4911,14 @@
       <c r="H24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I24" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4027,10 +4935,15 @@
       <c r="H25" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I25" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -4047,10 +4960,15 @@
       <c r="H26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -4074,8 +4992,9 @@
         <v>215</v>
       </c>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -4094,8 +5013,9 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -4114,8 +5034,9 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -4137,8 +5058,9 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -4156,8 +5078,9 @@
         <v>218</v>
       </c>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -4172,8 +5095,9 @@
         <v>219</v>
       </c>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -4194,8 +5118,9 @@
         <v>221</v>
       </c>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -4214,8 +5139,9 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -4234,8 +5160,9 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4251,8 +5178,9 @@
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -4268,8 +5196,9 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4285,8 +5214,9 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4305,8 +5235,9 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4322,8 +5253,9 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4342,8 +5274,9 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4362,8 +5295,9 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4382,8 +5316,9 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -4399,8 +5334,9 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -4419,8 +5355,9 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -4439,8 +5376,9 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -4459,8 +5397,9 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -4479,8 +5418,9 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -4499,8 +5439,9 @@
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -4519,8 +5460,9 @@
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -4542,8 +5484,9 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4559,8 +5502,9 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -4582,8 +5526,9 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -4602,8 +5547,9 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -4622,8 +5568,9 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -4642,8 +5589,9 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -4662,8 +5610,9 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -4688,8 +5637,9 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -4711,8 +5661,9 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -4731,8 +5682,9 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -4751,8 +5703,9 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -4765,8 +5718,9 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -4788,8 +5742,9 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>61</v>
       </c>
@@ -4808,8 +5763,9 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>62</v>
       </c>
@@ -4831,8 +5787,9 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>63</v>
       </c>
@@ -4848,8 +5805,9 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>64</v>
       </c>
@@ -4868,8 +5826,9 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>65</v>
       </c>
@@ -4891,8 +5850,9 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>66</v>
       </c>
@@ -4911,8 +5871,9 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -4934,8 +5895,9 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>68</v>
       </c>
@@ -4954,8 +5916,9 @@
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>69</v>
       </c>
@@ -4971,8 +5934,9 @@
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -4994,8 +5958,9 @@
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>71</v>
       </c>
@@ -5008,8 +5973,9 @@
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>72</v>
       </c>
@@ -5034,8 +6000,9 @@
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>73</v>
       </c>
@@ -5054,8 +6021,9 @@
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>74</v>
       </c>
@@ -5071,8 +6039,9 @@
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>75</v>
       </c>
@@ -5088,9 +6057,10 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-    </row>
-    <row r="511" spans="26:26" ht="270" x14ac:dyDescent="0.15">
-      <c r="Z511" s="3" t="s">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="511" spans="27:27" ht="270" x14ac:dyDescent="0.15">
+      <c r="AA511" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5105,12 +6075,1898 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA511"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="511" spans="27:27" ht="270" x14ac:dyDescent="0.15">
+      <c r="AA511" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aws/SAP/模擬結果.xlsx
+++ b/Aws/SAP/模擬結果.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="2265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="2265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="問題①" sheetId="1" r:id="rId1"/>
     <sheet name="問題②" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="問題③" sheetId="2" r:id="rId3"/>
+    <sheet name="問題④" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="577">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -1939,6 +1940,410 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C,F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B,C </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B,F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,E</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4326,9 +4731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA511"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4991,8 +5396,12 @@
       <c r="H27" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -5011,8 +5420,12 @@
       <c r="H28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -5032,8 +5445,12 @@
       <c r="H29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -6077,8 +6494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA511"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7970,4 +8387,1564 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA511"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="511" spans="27:27" ht="270" x14ac:dyDescent="0.15">
+      <c r="AA511" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Aws/SAP/模擬結果.xlsx
+++ b/Aws/SAP/模擬結果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="2265" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="2265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="問題①" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="581">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -2344,6 +2344,22 @@
   </si>
   <si>
     <t>A,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4731,9 +4747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA511"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5473,8 +5489,12 @@
       <c r="H30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -5494,8 +5514,12 @@
       <c r="H31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -5511,8 +5535,12 @@
       <c r="H32" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
@@ -5534,8 +5562,12 @@
       <c r="H33" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
@@ -8393,7 +8425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
